--- a/Configuration/ExpensesModuleData.xlsx
+++ b/Configuration/ExpensesModuleData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\In4Suite_Expenses\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\In4Suite_Expenses\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8257E75A-7794-4470-AEC6-BD51BB6F3651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4035A4DB-E1B0-4058-93FF-2169F3917944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="781" firstSheet="2" activeTab="6" xr2:uid="{63F48B15-360F-4D6A-A3E4-6FDE9E655A02}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="781" firstSheet="1" activeTab="2" xr2:uid="{63F48B15-360F-4D6A-A3E4-6FDE9E655A02}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses_BudgetPeriod" sheetId="6" r:id="rId1"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A02C60-3EC8-426F-8706-C286D3BB9D8C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -783,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9053FCE-056D-4790-874A-2087C14AFC3D}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1253,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC033553-3E25-4E82-A210-BFCC91037352}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>

--- a/Configuration/ExpensesModuleData.xlsx
+++ b/Configuration/ExpensesModuleData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\In4Suite_Expenses\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4035A4DB-E1B0-4058-93FF-2169F3917944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0707DACF-21D6-422F-B72C-430B30F39E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="781" firstSheet="1" activeTab="2" xr2:uid="{63F48B15-360F-4D6A-A3E4-6FDE9E655A02}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>TDS 10%</t>
-  </si>
-  <si>
     <t>Work Order created.......</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Advannce Deducted</t>
+  </si>
+  <si>
+    <t>EXP TDS 10%</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +761,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>38</v>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9053FCE-056D-4790-874A-2087C14AFC3D}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -860,7 +860,7 @@
         <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>19</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -964,16 +964,16 @@
         <v>100</v>
       </c>
       <c r="T3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="V3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -1016,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20D2C66-C257-4D3E-9EF3-6D9D9613D9E9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1082,19 +1082,19 @@
         <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="H2" s="4">
         <v>9632587410</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3681CC77-F04F-4E7B-94BF-BFCB1194EED1}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1170,7 +1170,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="4">
         <v>27092001</v>
@@ -1182,10 +1182,10 @@
         <v>15042024</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1224,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1235,10 +1235,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7">
         <v>250</v>
@@ -1302,7 +1302,7 @@
         <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>31</v>
@@ -1325,16 +1325,16 @@
         <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="4">
         <v>9632587410</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="4">
         <v>3360</v>

--- a/Configuration/ExpensesModuleData.xlsx
+++ b/Configuration/ExpensesModuleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\In4Suite_Expenses\Configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0707DACF-21D6-422F-B72C-430B30F39E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE94CD0E-5B7B-43BE-AE90-2BB6B162B08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="781" firstSheet="1" activeTab="2" xr2:uid="{63F48B15-360F-4D6A-A3E4-6FDE9E655A02}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="781" firstSheet="2" activeTab="6" xr2:uid="{63F48B15-360F-4D6A-A3E4-6FDE9E655A02}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenses_BudgetPeriod" sheetId="6" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>Documents uploaded</t>
   </si>
   <si>
-    <t>EXPENSE_ADVANCE_WORKORDER1</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>Debit Note Receipt created.......</t>
   </si>
   <si>
-    <t>EXPENSE_PAYMENT_WORKORDER1</t>
-  </si>
-  <si>
     <t>BudgetPeriod created.......</t>
   </si>
   <si>
@@ -223,6 +217,12 @@
   </si>
   <si>
     <t>EXP TDS 10%</t>
+  </si>
+  <si>
+    <t>EXPENSE_ADVANCE_WORKORDER</t>
+  </si>
+  <si>
+    <t>EXPENSE_PAYMENT_WORKORDER</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +761,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>38</v>
@@ -783,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9053FCE-056D-4790-874A-2087C14AFC3D}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
@@ -893,7 +893,7 @@
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -964,7 +964,7 @@
         <v>100</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U3" s="7" t="s">
         <v>47</v>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20D2C66-C257-4D3E-9EF3-6D9D9613D9E9}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,16 +1082,16 @@
         <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="H2" s="4">
         <v>9632587410</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>50</v>
@@ -1170,7 +1170,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4">
         <v>27092001</v>
@@ -1182,7 +1182,7 @@
         <v>15042024</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>50</v>
@@ -1224,7 +1224,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1235,10 +1235,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7">
         <v>250</v>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC033553-3E25-4E82-A210-BFCC91037352}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1302,7 +1302,7 @@
         <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>31</v>
@@ -1325,10 +1325,10 @@
         <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="4">
         <v>9632587410</v>
